--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2474905.51786606</v>
+        <v>-2477810.390013214</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>166.6494788429796</v>
+        <v>192.4564150008914</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>149.8794763036709</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>66.84061833647836</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.37087030010284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>67.3378365078426</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>76.9555174786597</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>68.4943989986722</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>223.8243835520302</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>261.5578699851727</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>281.5417453471473</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>272.4416738508086</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.7171117998689545</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>7.602497644398836</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>220.6346102953135</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>114.2821160880066</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>23.41986852521065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>14.75529838241564</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>185.6105502774377</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,7 +2482,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U25" t="n">
         <v>261.8998268972048</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096051</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652575</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
         <v>56.9811888265258</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972048</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1722.185086336931</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="C2" t="n">
-        <v>1353.22256939652</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="D2" t="n">
-        <v>1353.22256939652</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="E2" t="n">
-        <v>967.4343167982754</v>
+        <v>819.7731851199076</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X2" t="n">
-        <v>2112.324418312743</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.185086336931</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>2317.766129712456</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2169.853036130063</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>660.6132081089816</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>371.196038072021</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>143.2064871740037</v>
+        <v>2469.159540120205</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>2469.159540120205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>135.884402556362</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>658.9427225916138</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>658.9427225916138</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2432.949222346331</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1626.108787498779</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1267.843088892029</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>882.0548362937845</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>875.1093355445811</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>458.0215537810085</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1435.373231280527</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2062.680899340373</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657333</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.071304439191</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018222</v>
+        <v>1995.071304439191</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>764.6264059403564</v>
+        <v>1279.805585465869</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.2060920488001</v>
+        <v>328.5712958583739</v>
       </c>
       <c r="C10" t="n">
-        <v>648.2060920488001</v>
+        <v>328.5712958583739</v>
       </c>
       <c r="D10" t="n">
-        <v>648.2060920488001</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="E10" t="n">
-        <v>648.2060920488001</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="F10" t="n">
-        <v>501.3161445508897</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="G10" t="n">
-        <v>332.7092995462731</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
         <v>178.4546564460382</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>923.3997019991118</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>923.3997019991118</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>923.3997019991118</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>648.2060920488001</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="V10" t="n">
-        <v>648.2060920488001</v>
+        <v>557.2852021097942</v>
       </c>
       <c r="W10" t="n">
-        <v>648.2060920488001</v>
+        <v>556.5608467563912</v>
       </c>
       <c r="X10" t="n">
-        <v>648.2060920488001</v>
+        <v>328.5712958583739</v>
       </c>
       <c r="Y10" t="n">
-        <v>648.2060920488001</v>
+        <v>328.5712958583739</v>
       </c>
     </row>
     <row r="11">
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,10 +5364,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424041</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300683</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300683</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5750,22 +5750,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5838,19 +5838,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>718.550723916711</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888042</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.158203687148</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1893.082977031346</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1638.398488825459</v>
+        <v>1500.900449534062</v>
       </c>
       <c r="W22" t="n">
-        <v>1348.981318788498</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="X22" t="n">
-        <v>1120.991767890481</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.1991887469508</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6160,7 +6160,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
         <v>2496.057455973196</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580113</v>
@@ -6376,7 +6376,7 @@
         <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6391,16 +6391,16 @@
         <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
         <v>2639.297491717215</v>
@@ -6409,22 +6409,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
         <v>268.5553036345476</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6658,10 +6658,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K34" t="n">
         <v>483.8255460380728</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1344.266747951538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,19 +7564,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2072.35525930079</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,16 +7837,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>50.31370338866023</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>65.17988428675079</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>473.6238973478236</v>
+        <v>163.3181754619432</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>143.6340437417648</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>240.2265668987318</v>
+        <v>214.41963074082</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,10 +22592,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>17.36734479495689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.213783051992</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>172.2294825375385</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>65.54986409393067</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>31.13893193492464</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>143.8269525734172</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6501519448726</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>66.52709304639026</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -26317,13 +26317,13 @@
         <v>20526.04424660707</v>
       </c>
       <c r="D2" t="n">
-        <v>20526.04424660708</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="F2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
@@ -26332,7 +26332,7 @@
         <v>20178.66499225016</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
         <v>20526.0442466071</v>
@@ -26344,13 +26344,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="M2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="N2" t="n">
         <v>20526.0442466071</v>
       </c>
       <c r="O2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="P2" t="n">
         <v>20526.0442466071</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,10 +26399,10 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363173</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="O3" t="n">
-        <v>4.263256414560601e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103920.2865912124</v>
+        <v>103920.2865912123</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,22 +26424,22 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682786</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682752</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="F4" t="n">
-        <v>5677.536566682766</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682767</v>
-      </c>
       <c r="H4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="K4" t="n">
         <v>13668.39582977622</v>
@@ -26457,7 +26457,7 @@
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760864.167542805</v>
+        <v>-761328.4643348294</v>
       </c>
       <c r="C6" t="n">
         <v>-272255.4492798357</v>
@@ -26528,40 +26528,40 @@
         <v>-428059.2553736307</v>
       </c>
       <c r="E6" t="n">
-        <v>-857674.092779146</v>
+        <v>-857708.8307045817</v>
       </c>
       <c r="F6" t="n">
-        <v>-86621.40139833972</v>
+        <v>-86656.13932377541</v>
       </c>
       <c r="G6" t="n">
-        <v>-86621.40139833976</v>
+        <v>-86656.13932377539</v>
       </c>
       <c r="H6" t="n">
-        <v>-86621.40139833972</v>
+        <v>-86656.13932377539</v>
       </c>
       <c r="I6" t="n">
-        <v>-115734.1854307162</v>
+        <v>-115734.1854307163</v>
       </c>
       <c r="J6" t="n">
-        <v>-272729.6866296775</v>
+        <v>-272729.6866296774</v>
       </c>
       <c r="K6" t="n">
         <v>-96306.46743708452</v>
       </c>
       <c r="L6" t="n">
-        <v>-96306.4674370845</v>
+        <v>-96306.46743708452</v>
       </c>
       <c r="M6" t="n">
         <v>-220514.978145143</v>
       </c>
       <c r="N6" t="n">
-        <v>-115734.1854307162</v>
+        <v>-115734.1854307163</v>
       </c>
       <c r="O6" t="n">
-        <v>-96306.46743708456</v>
+        <v>-96306.4674370845</v>
       </c>
       <c r="P6" t="n">
-        <v>-96306.4674370845</v>
+        <v>-96306.46743708453</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26920,16 +26920,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26941,10 +26941,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>239.0997979217158</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>185.2970249873496</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>339.5382092338688</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>309.2824211773939</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>143.6511399513467</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>62.45749068994752</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.1759716783079</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>33.49913872806826</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28014,19 +28014,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>13.81898080728843</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>285.805886536722</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,7 +32324,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>340.4395077511235</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33263,7 +33263,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33278,7 +33278,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>416.4300581532626</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>618.3341264639751</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>346.9084613860368</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>238.89896886887</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>246.4903250489779</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>674.2872727545556</v>
+        <v>363.9815508686752</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35662,7 +35662,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,7 +35972,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>197.843263306679</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,13 +36753,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36926,7 +36926,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,13 +37154,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37859,16 +37859,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>476.2000925419567</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>212.9340539717066</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
